--- a/biology/Médecine/Muscle_sphincter_de_l’ampoule_hépatopancréatique/Muscle_sphincter_de_l’ampoule_hépatopancréatique.xlsx
+++ b/biology/Médecine/Muscle_sphincter_de_l’ampoule_hépatopancréatique/Muscle_sphincter_de_l’ampoule_hépatopancréatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_de_l%E2%80%99ampoule_h%C3%A9patopancr%C3%A9atique</t>
+          <t>Muscle_sphincter_de_l’ampoule_hépatopancréatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle sphincter de l’ampoule hépatopancréatique anciennement appelé sphincter d'Oddi[1],[2], est un muscle de forme annulaire situé à la partie terminale commune au canal cholédoque (transportant la bile) et au canal pancréatique principal (transportant les sécrétions pancréatiques exocrines). Il correspond à l'abouchement de l'ampoule hépatopancréatique (ou ampoule de Vater) au segment vertical ou D2 du duodénum.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle sphincter de l’ampoule hépatopancréatique anciennement appelé sphincter d'Oddi est un muscle de forme annulaire situé à la partie terminale commune au canal cholédoque (transportant la bile) et au canal pancréatique principal (transportant les sécrétions pancréatiques exocrines). Il correspond à l'abouchement de l'ampoule hépatopancréatique (ou ampoule de Vater) au segment vertical ou D2 du duodénum.
 Le rôle du « sphincter du cholédoque » a été décrit la première fois en 1887 par Ruggero Oddi.
-La dysfonction du sphincter d’Oddi (DSO)[3],[4] peut être observée en particulier après une cholécystectomie. La classification de Milwaukee[5] distingue trois types de DSO : le type I combine une dilatation de la voie biliaire principale et une anomalie des enzymes hépatiques; le type II l'une ou l'autre; le type III aucune des deux.
+La dysfonction du sphincter d’Oddi (DSO), peut être observée en particulier après une cholécystectomie. La classification de Milwaukee distingue trois types de DSO : le type I combine une dilatation de la voie biliaire principale et une anomalie des enzymes hépatiques; le type II l'une ou l'autre; le type III aucune des deux.
 </t>
         </is>
       </c>
